--- a/数据库表/ai_test_result.xlsx
+++ b/数据库表/ai_test_result.xlsx
@@ -13,27 +13,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>ai_user_id</t>
   </si>
   <si>
-    <t>ai_result_name</t>
-  </si>
-  <si>
-    <t>ai_result_describe</t>
-  </si>
-  <si>
-    <t>ai_result_lev</t>
-  </si>
-  <si>
-    <t>ai_result_time</t>
-  </si>
-  <si>
-    <t>ai_result_last_time</t>
-  </si>
-  <si>
-    <t>ai_result_total</t>
+    <t>ai_scale_id</t>
+  </si>
+  <si>
+    <t>ai_test_name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -77,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:C19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -90,17 +102,203 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
